--- a/asthma/ALL VARIABLES.xlsx
+++ b/asthma/ALL VARIABLES.xlsx
@@ -93,7 +93,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +104,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -140,16 +146,16 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -521,7 +527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -559,7 +565,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -597,7 +603,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -635,7 +641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -673,7 +679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -711,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -749,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -787,7 +793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -825,7 +831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -863,7 +869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -901,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -939,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -977,7 +983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1015,7 +1021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1053,7 +1059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1091,7 +1097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1129,7 +1135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
